--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calro\Documents\GitHub\VRPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B7DE41-1054-44A2-8DF1-E4EEFA2B608E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1523CC7-3E79-40FF-BEBC-1604111A86A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="29184" windowHeight="16440" activeTab="1" xr2:uid="{90F68AF6-099D-4744-8169-367297E34D66}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="4" xr2:uid="{90F68AF6-099D-4744-8169-367297E34D66}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing_Mikes" sheetId="1" r:id="rId1"/>
     <sheet name="1.0" sheetId="2" r:id="rId2"/>
+    <sheet name="1.5" sheetId="3" r:id="rId3"/>
+    <sheet name="2.0" sheetId="4" r:id="rId4"/>
+    <sheet name="3.0" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1964" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="386">
   <si>
     <t>Aggregate</t>
   </si>
@@ -121,13 +124,1084 @@
   </si>
   <si>
     <t>CutCGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPI:                 asgn001      crou060     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         1_1          1_1         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      9.04         9.04        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       81           71          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.22         0.24        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         1_5          1_5         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      9.11         9.11        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       47           35          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.08         0.08        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         2_1          2_1         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      9.57         9.57        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       89           79          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.16         0.26        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         2_3          2_3         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      8.3          8.3         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       53           103         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.14         0.21        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         2_5          2_5         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      10.65        10.65       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       79           103         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.13         0.22        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         2_7          2_7         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      6.51         6.51        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       377          341         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.7          0.88        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         3_1          3_1         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      11.44        11.44       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       63           65          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.08         0.11        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         3_5          3_5         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      12.2         12.2        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       71           73          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.09         0.17        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         3_9          3_9         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      11.21        11.21       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       71           71          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.08         0.12        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         3_13         3_13        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      10.49        10.49       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       85           85          </t>
+  </si>
+  <si>
+    <t>Time_taken_(s):      0.09         0.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.1          0.12        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.12         0.12        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       81           75          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.22         0.33        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       47           23          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       89           93          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.17         0.42        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       53           51          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.15         0.17        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       79           87          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.13         0.3         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       377          361         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.7          1.08        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       63           57          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.06         0.11        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       71           63          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.1          0.15        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.08         0.1         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       85           77          </t>
+  </si>
+  <si>
+    <t>Root TSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       81           155         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.22         0.46        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       47           39          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.09         0.16        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       89           175         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.19         0.35        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       53           191         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.14         0.51        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       79           117         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.15         0.25        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       377          433         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.76         0.9         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       63           85          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.07         0.23        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       71           89          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.12         0.19        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       71           57          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.07         0.12        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       85           71          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.08         0.12   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       81           73          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.26         0.25        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.09         0.06        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       89           83          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.17         0.25        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       53           63          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.14         0.17        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       79           111         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.15         0.23        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       377          327         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.71         0.78        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.08         0.21        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.11         0.13        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.1          0.12    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.23         0.41        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.1          0.17        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.17         0.34        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.15         0.45        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.14         0.23        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.74         0.96        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.07         0.27        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.09         0.15        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.06         0.07        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.08         0.13  </t>
+  </si>
+  <si>
+    <t>CGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       81           113         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.22         0.38        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       47           131         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.09         0.41        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       89           89          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.15         0.19        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       53           155         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.14         0.39        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       79           107         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.14         0.18        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       377          283         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.7          0.69        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.15         0.13        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       71           55          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.11         0.19        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       85           73          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.11         0.11      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.22         0.42        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       47           137         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.08         0.43        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       89           95          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.17         0.28        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       53           147         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.14         0.3         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       79           85          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.12         0.21        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       377          357         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.72         0.83        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.08         0.2         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       71           67          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.09         0.13        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.07         0.11        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.1          0.12   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.26         0.44        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.1          0.43        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.19         0.31        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.16         0.32        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.25         0.2         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.84         0.8         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.09         0.19        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.1          0.13        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.09         0.1         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.18         0.37        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.08         0.37        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.15         0.26        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.12         0.25        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.13         0.17        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.64         0.75        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.07         0.18        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.06         0.1         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.07         0.1     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPI:                 crou060      caaa123     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       627          225         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.99         0.34        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       193          21          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.34         0.06        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       779          279         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      1.12         0.34        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       655          277         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      1.29         0.47        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       1023         383         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      1.86         0.43        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       2577         745         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      4.31         0.86        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       85           31          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.08         0.03        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       89           47          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.08         0.05        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       55           21          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.05         0.02        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       73           45          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.07         0.04 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       187          83          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.25         0.14        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       45           25          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       177          111         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.24         0.14        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       191          109         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.26         0.19        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       117          131         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.15         0.16        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       499          169         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.68         0.18        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       85           13          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.06         0.02        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       89           11          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.13         0.03        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       57           21          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.04         0.02        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       71           39          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.06         0.05  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       73           15          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       63           35          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       85           29          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       93           51          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.25         0.17        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.12         0.08        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       125          21          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.27         0.05        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       97           69          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.19         0.12        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       145          95          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.31         0.24        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       299          129         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.85         0.23        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       83           21          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.13         0.04        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       95           41          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.12         0.05        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       69           23          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.14         0.04        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       59           29          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.07         0.06  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       95           27          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.37         0.12        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       63           33          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.26         0.12        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       65           15          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.19         0.06        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       45           15          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.14         0.05        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       107          51          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.39         0.14        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       399          81          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      1.06         0.2         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.16         0.05        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       69           19          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.15         0.05        </t>
+  </si>
+  <si>
+    <t>Time_taken_(s):      0.1          0.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.2          0.06        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.13         0.07        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.1          0.04        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.19         0.09        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.7          0.16        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.11         0.04        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.12         0.04        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.07         0.04     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       85           23          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.23         0.06        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       27           5           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.11         0.03        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       71           35          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.21         0.15        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       33           9           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.12         0.03        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       89           27          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.31         0.09        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       325          41          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.67         0.11        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       75           27          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       89           33          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.11         0.05        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       69           21          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.07         0.04        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       53           23          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.06         0.03       </t>
+  </si>
+  <si>
+    <t>Cut CGL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       75           21          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       85           25          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.22         0.08        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       47           31          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.18         0.1         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.19         0.1         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.18         0.07        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       105          51          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      1.03         0.22        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.19         0.05        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.17         0.06        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.1          0.05        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.1          0.06  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.28         0.08        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       21           5           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       69           35          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.26         0.13        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.14         0.07        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       91           27          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.38         0.12        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.9          0.15        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.16         0.14        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.11         0.05 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       81           25          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       89           15          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       53           15          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       79           51          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       377          81          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       63           21          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       71           27          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       71           19          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      9.037        9.037       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.213        0.132       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      9.105        9.105       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.087        0.11        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      9.575        9.575       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.16         0.071       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      8.295        8.295       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.134        0.077       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      10.654       10.654      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.131        0.13        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      6.514        6.514       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.631        0.323       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      11.443       11.443      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.069        0.047       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      12.205       12.205      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.082        0.085       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      11.215       11.215      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.061        0.053       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      10.489       10.489      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.081        0.078     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       87           21          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.245        0.088       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       25           5           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.087        0.038       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       59           35          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.176        0.186       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       49           9           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.162        0.064       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       81           27          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.222        0.115       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       353          41          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.681        0.194       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       57           27          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.092        0.05        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       57           33          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.092        0.073       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       71           21          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.072        0.071       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       77           23          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.084        0.046    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       87           23          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.238        0.079       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.085        0.031       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.147        0.102       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.154        0.07        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.216        0.082       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.699        0.102       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.102        0.04        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.082        0.059       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.072        0.04        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.082        0.031   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.247        0.133       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       47           33          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.123        0.113       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.199        0.061       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.133        0.051       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.184        0.173       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.798        0.204       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.09         0.04        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.12         0.049       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.09         0.047       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.102        0.047      </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +1214,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -168,10 +1248,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9393,8 +10476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4874460-3890-40F5-A277-15863F16401D}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10499,4 +11582,3819 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EDEBAB8-3169-4552-9216-A176D2D4B00F}">
+  <dimension ref="A1:S77"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="5" max="5" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="32.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="C9" s="2"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="S10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" t="s">
+        <v>31</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="s">
+        <v>90</v>
+      </c>
+      <c r="O13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>111</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="s">
+        <v>153</v>
+      </c>
+      <c r="O14" t="s">
+        <v>169</v>
+      </c>
+      <c r="S14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="S17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" t="s">
+        <v>34</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="S18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G19" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>35</v>
+      </c>
+      <c r="K19" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" t="s">
+        <v>92</v>
+      </c>
+      <c r="K20" t="s">
+        <v>138</v>
+      </c>
+      <c r="M20" t="s">
+        <v>154</v>
+      </c>
+      <c r="O20" t="s">
+        <v>154</v>
+      </c>
+      <c r="S20" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21" t="s">
+        <v>125</v>
+      </c>
+      <c r="K21" t="s">
+        <v>139</v>
+      </c>
+      <c r="M21" t="s">
+        <v>155</v>
+      </c>
+      <c r="O21" t="s">
+        <v>170</v>
+      </c>
+      <c r="S21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" t="s">
+        <v>29</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="S24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>38</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+      <c r="K25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" t="s">
+        <v>38</v>
+      </c>
+      <c r="S25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="s">
+        <v>39</v>
+      </c>
+      <c r="I26" t="s">
+        <v>39</v>
+      </c>
+      <c r="K26" t="s">
+        <v>39</v>
+      </c>
+      <c r="M26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O26" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" t="s">
+        <v>94</v>
+      </c>
+      <c r="K27" t="s">
+        <v>140</v>
+      </c>
+      <c r="M27" t="s">
+        <v>156</v>
+      </c>
+      <c r="O27" t="s">
+        <v>156</v>
+      </c>
+      <c r="S27" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" t="s">
+        <v>126</v>
+      </c>
+      <c r="K28" t="s">
+        <v>141</v>
+      </c>
+      <c r="M28" t="s">
+        <v>157</v>
+      </c>
+      <c r="O28" t="s">
+        <v>171</v>
+      </c>
+      <c r="S28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" t="s">
+        <v>29</v>
+      </c>
+      <c r="M31" t="s">
+        <v>29</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="S31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" t="s">
+        <v>42</v>
+      </c>
+      <c r="G32" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" t="s">
+        <v>42</v>
+      </c>
+      <c r="M32" t="s">
+        <v>42</v>
+      </c>
+      <c r="O32" t="s">
+        <v>42</v>
+      </c>
+      <c r="S32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" t="s">
+        <v>43</v>
+      </c>
+      <c r="K33" t="s">
+        <v>43</v>
+      </c>
+      <c r="M33" t="s">
+        <v>43</v>
+      </c>
+      <c r="O33" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s">
+        <v>115</v>
+      </c>
+      <c r="I34" t="s">
+        <v>96</v>
+      </c>
+      <c r="K34" t="s">
+        <v>142</v>
+      </c>
+      <c r="M34" t="s">
+        <v>158</v>
+      </c>
+      <c r="O34" t="s">
+        <v>158</v>
+      </c>
+      <c r="S34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="G35" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" t="s">
+        <v>127</v>
+      </c>
+      <c r="K35" t="s">
+        <v>143</v>
+      </c>
+      <c r="M35" t="s">
+        <v>159</v>
+      </c>
+      <c r="O35" t="s">
+        <v>172</v>
+      </c>
+      <c r="S35" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G38" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O38" t="s">
+        <v>29</v>
+      </c>
+      <c r="S38" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" t="s">
+        <v>46</v>
+      </c>
+      <c r="M39" t="s">
+        <v>46</v>
+      </c>
+      <c r="O39" t="s">
+        <v>46</v>
+      </c>
+      <c r="S39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" t="s">
+        <v>47</v>
+      </c>
+      <c r="G40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>47</v>
+      </c>
+      <c r="K40" t="s">
+        <v>47</v>
+      </c>
+      <c r="M40" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40" t="s">
+        <v>47</v>
+      </c>
+      <c r="S40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" t="s">
+        <v>79</v>
+      </c>
+      <c r="E41" t="s">
+        <v>98</v>
+      </c>
+      <c r="G41" t="s">
+        <v>117</v>
+      </c>
+      <c r="I41" t="s">
+        <v>98</v>
+      </c>
+      <c r="K41" t="s">
+        <v>144</v>
+      </c>
+      <c r="M41" t="s">
+        <v>160</v>
+      </c>
+      <c r="O41" t="s">
+        <v>160</v>
+      </c>
+      <c r="S41" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
+        <v>99</v>
+      </c>
+      <c r="G42" t="s">
+        <v>118</v>
+      </c>
+      <c r="I42" t="s">
+        <v>128</v>
+      </c>
+      <c r="K42" t="s">
+        <v>145</v>
+      </c>
+      <c r="M42" t="s">
+        <v>161</v>
+      </c>
+      <c r="O42" t="s">
+        <v>173</v>
+      </c>
+      <c r="S42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s">
+        <v>29</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" t="s">
+        <v>29</v>
+      </c>
+      <c r="M45" t="s">
+        <v>29</v>
+      </c>
+      <c r="O45" t="s">
+        <v>29</v>
+      </c>
+      <c r="S45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" t="s">
+        <v>50</v>
+      </c>
+      <c r="K46" t="s">
+        <v>50</v>
+      </c>
+      <c r="M46" t="s">
+        <v>50</v>
+      </c>
+      <c r="O46" t="s">
+        <v>50</v>
+      </c>
+      <c r="S46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>51</v>
+      </c>
+      <c r="G47" t="s">
+        <v>51</v>
+      </c>
+      <c r="I47" t="s">
+        <v>51</v>
+      </c>
+      <c r="K47" t="s">
+        <v>51</v>
+      </c>
+      <c r="M47" t="s">
+        <v>51</v>
+      </c>
+      <c r="O47" t="s">
+        <v>51</v>
+      </c>
+      <c r="S47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48" t="s">
+        <v>100</v>
+      </c>
+      <c r="K48" t="s">
+        <v>146</v>
+      </c>
+      <c r="M48" t="s">
+        <v>162</v>
+      </c>
+      <c r="O48" t="s">
+        <v>162</v>
+      </c>
+      <c r="S48" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="E49" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" t="s">
+        <v>120</v>
+      </c>
+      <c r="I49" t="s">
+        <v>129</v>
+      </c>
+      <c r="K49" t="s">
+        <v>147</v>
+      </c>
+      <c r="M49" t="s">
+        <v>163</v>
+      </c>
+      <c r="O49" t="s">
+        <v>174</v>
+      </c>
+      <c r="S49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="G52" t="s">
+        <v>29</v>
+      </c>
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" t="s">
+        <v>29</v>
+      </c>
+      <c r="M52" t="s">
+        <v>29</v>
+      </c>
+      <c r="O52" t="s">
+        <v>29</v>
+      </c>
+      <c r="S52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" t="s">
+        <v>54</v>
+      </c>
+      <c r="G53" t="s">
+        <v>54</v>
+      </c>
+      <c r="I53" t="s">
+        <v>54</v>
+      </c>
+      <c r="K53" t="s">
+        <v>54</v>
+      </c>
+      <c r="M53" t="s">
+        <v>54</v>
+      </c>
+      <c r="O53" t="s">
+        <v>54</v>
+      </c>
+      <c r="S53" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="G54" t="s">
+        <v>55</v>
+      </c>
+      <c r="I54" t="s">
+        <v>55</v>
+      </c>
+      <c r="K54" t="s">
+        <v>55</v>
+      </c>
+      <c r="M54" t="s">
+        <v>55</v>
+      </c>
+      <c r="O54" t="s">
+        <v>55</v>
+      </c>
+      <c r="S54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="G55" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" t="s">
+        <v>102</v>
+      </c>
+      <c r="K55" t="s">
+        <v>102</v>
+      </c>
+      <c r="M55" t="s">
+        <v>56</v>
+      </c>
+      <c r="O55" t="s">
+        <v>56</v>
+      </c>
+      <c r="S55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" t="s">
+        <v>103</v>
+      </c>
+      <c r="G56" t="s">
+        <v>121</v>
+      </c>
+      <c r="I56" t="s">
+        <v>130</v>
+      </c>
+      <c r="K56" t="s">
+        <v>71</v>
+      </c>
+      <c r="M56" t="s">
+        <v>164</v>
+      </c>
+      <c r="O56" t="s">
+        <v>175</v>
+      </c>
+      <c r="S56" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>29</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="G59" t="s">
+        <v>29</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="K59" t="s">
+        <v>29</v>
+      </c>
+      <c r="M59" t="s">
+        <v>29</v>
+      </c>
+      <c r="O59" t="s">
+        <v>29</v>
+      </c>
+      <c r="S59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" t="s">
+        <v>58</v>
+      </c>
+      <c r="I60" t="s">
+        <v>58</v>
+      </c>
+      <c r="K60" t="s">
+        <v>58</v>
+      </c>
+      <c r="M60" t="s">
+        <v>58</v>
+      </c>
+      <c r="O60" t="s">
+        <v>58</v>
+      </c>
+      <c r="S60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="E61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" t="s">
+        <v>59</v>
+      </c>
+      <c r="I61" t="s">
+        <v>59</v>
+      </c>
+      <c r="K61" t="s">
+        <v>59</v>
+      </c>
+      <c r="M61" t="s">
+        <v>59</v>
+      </c>
+      <c r="O61" t="s">
+        <v>59</v>
+      </c>
+      <c r="S61" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>85</v>
+      </c>
+      <c r="E62" t="s">
+        <v>104</v>
+      </c>
+      <c r="G62" t="s">
+        <v>104</v>
+      </c>
+      <c r="I62" t="s">
+        <v>104</v>
+      </c>
+      <c r="K62" t="s">
+        <v>104</v>
+      </c>
+      <c r="M62" t="s">
+        <v>165</v>
+      </c>
+      <c r="O62" t="s">
+        <v>165</v>
+      </c>
+      <c r="S62" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>86</v>
+      </c>
+      <c r="E63" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" t="s">
+        <v>122</v>
+      </c>
+      <c r="I63" t="s">
+        <v>131</v>
+      </c>
+      <c r="K63" t="s">
+        <v>148</v>
+      </c>
+      <c r="M63" t="s">
+        <v>166</v>
+      </c>
+      <c r="O63" t="s">
+        <v>176</v>
+      </c>
+      <c r="S63" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+      <c r="G66" t="s">
+        <v>29</v>
+      </c>
+      <c r="I66" t="s">
+        <v>29</v>
+      </c>
+      <c r="K66" t="s">
+        <v>29</v>
+      </c>
+      <c r="M66" t="s">
+        <v>29</v>
+      </c>
+      <c r="O66" t="s">
+        <v>29</v>
+      </c>
+      <c r="S66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" t="s">
+        <v>62</v>
+      </c>
+      <c r="E67" t="s">
+        <v>62</v>
+      </c>
+      <c r="G67" t="s">
+        <v>62</v>
+      </c>
+      <c r="I67" t="s">
+        <v>62</v>
+      </c>
+      <c r="K67" t="s">
+        <v>62</v>
+      </c>
+      <c r="M67" t="s">
+        <v>62</v>
+      </c>
+      <c r="O67" t="s">
+        <v>62</v>
+      </c>
+      <c r="S67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>63</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" t="s">
+        <v>63</v>
+      </c>
+      <c r="G68" t="s">
+        <v>63</v>
+      </c>
+      <c r="I68" t="s">
+        <v>63</v>
+      </c>
+      <c r="K68" t="s">
+        <v>63</v>
+      </c>
+      <c r="M68" t="s">
+        <v>63</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="S68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" t="s">
+        <v>106</v>
+      </c>
+      <c r="G69" t="s">
+        <v>106</v>
+      </c>
+      <c r="I69" t="s">
+        <v>106</v>
+      </c>
+      <c r="K69" t="s">
+        <v>149</v>
+      </c>
+      <c r="M69" t="s">
+        <v>64</v>
+      </c>
+      <c r="O69" t="s">
+        <v>64</v>
+      </c>
+      <c r="S69" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>65</v>
+      </c>
+      <c r="C70" t="s">
+        <v>87</v>
+      </c>
+      <c r="E70" t="s">
+        <v>107</v>
+      </c>
+      <c r="G70" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70" t="s">
+        <v>132</v>
+      </c>
+      <c r="K70" t="s">
+        <v>150</v>
+      </c>
+      <c r="M70" t="s">
+        <v>167</v>
+      </c>
+      <c r="O70" t="s">
+        <v>177</v>
+      </c>
+      <c r="S70" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="s">
+        <v>29</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="G73" t="s">
+        <v>29</v>
+      </c>
+      <c r="I73" t="s">
+        <v>29</v>
+      </c>
+      <c r="K73" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" t="s">
+        <v>29</v>
+      </c>
+      <c r="O73" t="s">
+        <v>29</v>
+      </c>
+      <c r="S73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" t="s">
+        <v>66</v>
+      </c>
+      <c r="E74" t="s">
+        <v>66</v>
+      </c>
+      <c r="G74" t="s">
+        <v>66</v>
+      </c>
+      <c r="I74" t="s">
+        <v>66</v>
+      </c>
+      <c r="K74" t="s">
+        <v>66</v>
+      </c>
+      <c r="M74" t="s">
+        <v>66</v>
+      </c>
+      <c r="O74" t="s">
+        <v>66</v>
+      </c>
+      <c r="S74" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" t="s">
+        <v>67</v>
+      </c>
+      <c r="G75" t="s">
+        <v>67</v>
+      </c>
+      <c r="I75" t="s">
+        <v>67</v>
+      </c>
+      <c r="K75" t="s">
+        <v>67</v>
+      </c>
+      <c r="M75" t="s">
+        <v>67</v>
+      </c>
+      <c r="O75" t="s">
+        <v>67</v>
+      </c>
+      <c r="S75" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
+      <c r="E76" t="s">
+        <v>108</v>
+      </c>
+      <c r="G76" t="s">
+        <v>108</v>
+      </c>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+      <c r="K76" t="s">
+        <v>151</v>
+      </c>
+      <c r="M76" t="s">
+        <v>68</v>
+      </c>
+      <c r="O76" t="s">
+        <v>68</v>
+      </c>
+      <c r="S76" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" t="s">
+        <v>109</v>
+      </c>
+      <c r="G77" t="s">
+        <v>123</v>
+      </c>
+      <c r="I77" t="s">
+        <v>133</v>
+      </c>
+      <c r="K77" t="s">
+        <v>152</v>
+      </c>
+      <c r="M77" t="s">
+        <v>168</v>
+      </c>
+      <c r="O77" t="s">
+        <v>168</v>
+      </c>
+      <c r="S77" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BCD61B8-3FAD-46ED-BA2A-92038981927C}">
+  <dimension ref="A1:S75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="32.5546875" customWidth="1"/>
+    <col min="15" max="15" width="8.77734375" customWidth="1"/>
+    <col min="17" max="17" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="32.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>20</v>
+      </c>
+      <c r="N4" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>292</v>
+      </c>
+      <c r="S5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="S6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L8" t="s">
+        <v>187</v>
+      </c>
+      <c r="N8" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>187</v>
+      </c>
+      <c r="S8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>188</v>
+      </c>
+      <c r="F11" t="s">
+        <v>208</v>
+      </c>
+      <c r="H11" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" t="s">
+        <v>249</v>
+      </c>
+      <c r="L11" t="s">
+        <v>249</v>
+      </c>
+      <c r="N11" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>273</v>
+      </c>
+      <c r="S11" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>189</v>
+      </c>
+      <c r="F12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H12" t="s">
+        <v>231</v>
+      </c>
+      <c r="J12" t="s">
+        <v>250</v>
+      </c>
+      <c r="L12" t="s">
+        <v>265</v>
+      </c>
+      <c r="N12" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>274</v>
+      </c>
+      <c r="S12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>187</v>
+      </c>
+      <c r="F15" t="s">
+        <v>187</v>
+      </c>
+      <c r="H15" t="s">
+        <v>187</v>
+      </c>
+      <c r="J15" t="s">
+        <v>187</v>
+      </c>
+      <c r="L15" t="s">
+        <v>187</v>
+      </c>
+      <c r="N15" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>187</v>
+      </c>
+      <c r="S15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+      <c r="L16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N16" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>34</v>
+      </c>
+      <c r="S16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" t="s">
+        <v>35</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N17" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>190</v>
+      </c>
+      <c r="F18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H18" t="s">
+        <v>228</v>
+      </c>
+      <c r="J18" t="s">
+        <v>251</v>
+      </c>
+      <c r="L18" t="s">
+        <v>251</v>
+      </c>
+      <c r="N18" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>275</v>
+      </c>
+      <c r="S18" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+      <c r="F19" t="s">
+        <v>203</v>
+      </c>
+      <c r="H19" t="s">
+        <v>232</v>
+      </c>
+      <c r="J19" t="s">
+        <v>252</v>
+      </c>
+      <c r="L19" t="s">
+        <v>266</v>
+      </c>
+      <c r="N19" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>276</v>
+      </c>
+      <c r="S19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>187</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="H22" t="s">
+        <v>187</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>187</v>
+      </c>
+      <c r="S22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J23" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>38</v>
+      </c>
+      <c r="S23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" t="s">
+        <v>39</v>
+      </c>
+      <c r="H24" t="s">
+        <v>39</v>
+      </c>
+      <c r="J24" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" t="s">
+        <v>39</v>
+      </c>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F25" t="s">
+        <v>211</v>
+      </c>
+      <c r="H25" t="s">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s">
+        <v>253</v>
+      </c>
+      <c r="L25" t="s">
+        <v>253</v>
+      </c>
+      <c r="N25" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>277</v>
+      </c>
+      <c r="S25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" t="s">
+        <v>212</v>
+      </c>
+      <c r="H26" t="s">
+        <v>234</v>
+      </c>
+      <c r="J26" t="s">
+        <v>254</v>
+      </c>
+      <c r="L26" t="s">
+        <v>246</v>
+      </c>
+      <c r="N26" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>278</v>
+      </c>
+      <c r="S26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F29" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" t="s">
+        <v>187</v>
+      </c>
+      <c r="L29" t="s">
+        <v>187</v>
+      </c>
+      <c r="N29" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>187</v>
+      </c>
+      <c r="S29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>42</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+      <c r="L30" t="s">
+        <v>42</v>
+      </c>
+      <c r="N30" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>42</v>
+      </c>
+      <c r="S30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>43</v>
+      </c>
+      <c r="H31" t="s">
+        <v>43</v>
+      </c>
+      <c r="J31" t="s">
+        <v>43</v>
+      </c>
+      <c r="L31" t="s">
+        <v>43</v>
+      </c>
+      <c r="N31" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>43</v>
+      </c>
+      <c r="S31" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" t="s">
+        <v>213</v>
+      </c>
+      <c r="H32" t="s">
+        <v>235</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>255</v>
+      </c>
+      <c r="N32" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>279</v>
+      </c>
+      <c r="S32" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33" t="s">
+        <v>214</v>
+      </c>
+      <c r="H33" t="s">
+        <v>236</v>
+      </c>
+      <c r="J33" t="s">
+        <v>256</v>
+      </c>
+      <c r="L33" t="s">
+        <v>267</v>
+      </c>
+      <c r="N33" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>280</v>
+      </c>
+      <c r="S33" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" t="s">
+        <v>187</v>
+      </c>
+      <c r="H36" t="s">
+        <v>187</v>
+      </c>
+      <c r="J36" t="s">
+        <v>187</v>
+      </c>
+      <c r="L36" t="s">
+        <v>187</v>
+      </c>
+      <c r="N36" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>187</v>
+      </c>
+      <c r="S36" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" t="s">
+        <v>46</v>
+      </c>
+      <c r="L37" t="s">
+        <v>46</v>
+      </c>
+      <c r="N37" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>46</v>
+      </c>
+      <c r="S37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J38" t="s">
+        <v>47</v>
+      </c>
+      <c r="L38" t="s">
+        <v>47</v>
+      </c>
+      <c r="N38" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>47</v>
+      </c>
+      <c r="S38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>196</v>
+      </c>
+      <c r="F39" t="s">
+        <v>215</v>
+      </c>
+      <c r="H39" t="s">
+        <v>237</v>
+      </c>
+      <c r="J39" t="s">
+        <v>257</v>
+      </c>
+      <c r="L39" t="s">
+        <v>257</v>
+      </c>
+      <c r="N39" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>281</v>
+      </c>
+      <c r="S39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>197</v>
+      </c>
+      <c r="F40" t="s">
+        <v>216</v>
+      </c>
+      <c r="H40" t="s">
+        <v>238</v>
+      </c>
+      <c r="J40" t="s">
+        <v>258</v>
+      </c>
+      <c r="L40" t="s">
+        <v>268</v>
+      </c>
+      <c r="N40" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>282</v>
+      </c>
+      <c r="S40" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>187</v>
+      </c>
+      <c r="F43" t="s">
+        <v>187</v>
+      </c>
+      <c r="H43" t="s">
+        <v>187</v>
+      </c>
+      <c r="J43" t="s">
+        <v>187</v>
+      </c>
+      <c r="L43" t="s">
+        <v>187</v>
+      </c>
+      <c r="N43" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>187</v>
+      </c>
+      <c r="S43" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H44" t="s">
+        <v>50</v>
+      </c>
+      <c r="J44" t="s">
+        <v>50</v>
+      </c>
+      <c r="L44" t="s">
+        <v>50</v>
+      </c>
+      <c r="N44" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>50</v>
+      </c>
+      <c r="S44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F45" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" t="s">
+        <v>51</v>
+      </c>
+      <c r="J45" t="s">
+        <v>51</v>
+      </c>
+      <c r="L45" t="s">
+        <v>51</v>
+      </c>
+      <c r="N45" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>51</v>
+      </c>
+      <c r="S45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>198</v>
+      </c>
+      <c r="F46" t="s">
+        <v>217</v>
+      </c>
+      <c r="H46" t="s">
+        <v>239</v>
+      </c>
+      <c r="J46" t="s">
+        <v>259</v>
+      </c>
+      <c r="L46" t="s">
+        <v>259</v>
+      </c>
+      <c r="N46" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>283</v>
+      </c>
+      <c r="S46" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>199</v>
+      </c>
+      <c r="F47" t="s">
+        <v>218</v>
+      </c>
+      <c r="H47" t="s">
+        <v>240</v>
+      </c>
+      <c r="J47" t="s">
+        <v>260</v>
+      </c>
+      <c r="L47" t="s">
+        <v>269</v>
+      </c>
+      <c r="N47" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>284</v>
+      </c>
+      <c r="S47" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>187</v>
+      </c>
+      <c r="F50" t="s">
+        <v>187</v>
+      </c>
+      <c r="H50" t="s">
+        <v>187</v>
+      </c>
+      <c r="J50" t="s">
+        <v>187</v>
+      </c>
+      <c r="L50" t="s">
+        <v>187</v>
+      </c>
+      <c r="N50" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>187</v>
+      </c>
+      <c r="S50" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+      <c r="F51" t="s">
+        <v>54</v>
+      </c>
+      <c r="H51" t="s">
+        <v>54</v>
+      </c>
+      <c r="J51" t="s">
+        <v>54</v>
+      </c>
+      <c r="L51" t="s">
+        <v>54</v>
+      </c>
+      <c r="N51" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>54</v>
+      </c>
+      <c r="S51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" t="s">
+        <v>55</v>
+      </c>
+      <c r="J52" t="s">
+        <v>55</v>
+      </c>
+      <c r="L52" t="s">
+        <v>55</v>
+      </c>
+      <c r="N52" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>55</v>
+      </c>
+      <c r="S52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>200</v>
+      </c>
+      <c r="F53" t="s">
+        <v>219</v>
+      </c>
+      <c r="H53" t="s">
+        <v>241</v>
+      </c>
+      <c r="J53" t="s">
+        <v>241</v>
+      </c>
+      <c r="L53" t="s">
+        <v>241</v>
+      </c>
+      <c r="N53" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>285</v>
+      </c>
+      <c r="S53" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>201</v>
+      </c>
+      <c r="F54" t="s">
+        <v>220</v>
+      </c>
+      <c r="H54" t="s">
+        <v>242</v>
+      </c>
+      <c r="J54" t="s">
+        <v>246</v>
+      </c>
+      <c r="L54" t="s">
+        <v>201</v>
+      </c>
+      <c r="N54" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>271</v>
+      </c>
+      <c r="S54" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" t="s">
+        <v>187</v>
+      </c>
+      <c r="H57" t="s">
+        <v>187</v>
+      </c>
+      <c r="J57" t="s">
+        <v>187</v>
+      </c>
+      <c r="L57" t="s">
+        <v>187</v>
+      </c>
+      <c r="N57" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>187</v>
+      </c>
+      <c r="S57" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>58</v>
+      </c>
+      <c r="F58" t="s">
+        <v>58</v>
+      </c>
+      <c r="H58" t="s">
+        <v>58</v>
+      </c>
+      <c r="J58" t="s">
+        <v>58</v>
+      </c>
+      <c r="L58" t="s">
+        <v>58</v>
+      </c>
+      <c r="N58" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>58</v>
+      </c>
+      <c r="S58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>59</v>
+      </c>
+      <c r="F59" t="s">
+        <v>59</v>
+      </c>
+      <c r="H59" t="s">
+        <v>59</v>
+      </c>
+      <c r="J59" t="s">
+        <v>59</v>
+      </c>
+      <c r="L59" t="s">
+        <v>59</v>
+      </c>
+      <c r="N59" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>59</v>
+      </c>
+      <c r="S59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>202</v>
+      </c>
+      <c r="F60" t="s">
+        <v>221</v>
+      </c>
+      <c r="H60" t="s">
+        <v>243</v>
+      </c>
+      <c r="J60" t="s">
+        <v>249</v>
+      </c>
+      <c r="L60" t="s">
+        <v>249</v>
+      </c>
+      <c r="N60" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>286</v>
+      </c>
+      <c r="S60" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>203</v>
+      </c>
+      <c r="F61" t="s">
+        <v>222</v>
+      </c>
+      <c r="H61" t="s">
+        <v>244</v>
+      </c>
+      <c r="J61" t="s">
+        <v>261</v>
+      </c>
+      <c r="L61" t="s">
+        <v>270</v>
+      </c>
+      <c r="N61" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>287</v>
+      </c>
+      <c r="S61" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" t="s">
+        <v>187</v>
+      </c>
+      <c r="H64" t="s">
+        <v>187</v>
+      </c>
+      <c r="J64" t="s">
+        <v>187</v>
+      </c>
+      <c r="L64" t="s">
+        <v>187</v>
+      </c>
+      <c r="N64" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>187</v>
+      </c>
+      <c r="S64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F65" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" t="s">
+        <v>62</v>
+      </c>
+      <c r="J65" t="s">
+        <v>62</v>
+      </c>
+      <c r="L65" t="s">
+        <v>62</v>
+      </c>
+      <c r="N65" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>62</v>
+      </c>
+      <c r="S65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>63</v>
+      </c>
+      <c r="F66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H66" t="s">
+        <v>63</v>
+      </c>
+      <c r="J66" t="s">
+        <v>63</v>
+      </c>
+      <c r="L66" t="s">
+        <v>63</v>
+      </c>
+      <c r="N66" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>63</v>
+      </c>
+      <c r="S66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>204</v>
+      </c>
+      <c r="F67" t="s">
+        <v>223</v>
+      </c>
+      <c r="H67" t="s">
+        <v>245</v>
+      </c>
+      <c r="J67" t="s">
+        <v>262</v>
+      </c>
+      <c r="L67" t="s">
+        <v>262</v>
+      </c>
+      <c r="N67" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>288</v>
+      </c>
+      <c r="S67" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>205</v>
+      </c>
+      <c r="F68" t="s">
+        <v>224</v>
+      </c>
+      <c r="H68" t="s">
+        <v>246</v>
+      </c>
+      <c r="J68" t="s">
+        <v>263</v>
+      </c>
+      <c r="L68" t="s">
+        <v>271</v>
+      </c>
+      <c r="N68" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>289</v>
+      </c>
+      <c r="S68" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" t="s">
+        <v>187</v>
+      </c>
+      <c r="H71" t="s">
+        <v>187</v>
+      </c>
+      <c r="J71" t="s">
+        <v>187</v>
+      </c>
+      <c r="L71" t="s">
+        <v>187</v>
+      </c>
+      <c r="N71" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q71" t="s">
+        <v>187</v>
+      </c>
+      <c r="S71" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" t="s">
+        <v>66</v>
+      </c>
+      <c r="H72" t="s">
+        <v>66</v>
+      </c>
+      <c r="J72" t="s">
+        <v>66</v>
+      </c>
+      <c r="L72" t="s">
+        <v>66</v>
+      </c>
+      <c r="N72" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>66</v>
+      </c>
+      <c r="S72" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="F73" t="s">
+        <v>67</v>
+      </c>
+      <c r="H73" t="s">
+        <v>67</v>
+      </c>
+      <c r="J73" t="s">
+        <v>67</v>
+      </c>
+      <c r="L73" t="s">
+        <v>67</v>
+      </c>
+      <c r="N73" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>67</v>
+      </c>
+      <c r="S73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>206</v>
+      </c>
+      <c r="F74" t="s">
+        <v>225</v>
+      </c>
+      <c r="H74" t="s">
+        <v>247</v>
+      </c>
+      <c r="J74" t="s">
+        <v>247</v>
+      </c>
+      <c r="L74" t="s">
+        <v>247</v>
+      </c>
+      <c r="N74" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>290</v>
+      </c>
+      <c r="S74" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>207</v>
+      </c>
+      <c r="F75" t="s">
+        <v>226</v>
+      </c>
+      <c r="H75" t="s">
+        <v>248</v>
+      </c>
+      <c r="J75" t="s">
+        <v>264</v>
+      </c>
+      <c r="L75" t="s">
+        <v>272</v>
+      </c>
+      <c r="N75" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>291</v>
+      </c>
+      <c r="S75" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C91E41C-90C1-440C-B827-4B8EE716006A}">
+  <dimension ref="A1:G76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C11" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" t="s">
+        <v>324</v>
+      </c>
+      <c r="G11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12" t="s">
+        <v>364</v>
+      </c>
+      <c r="G12" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" t="s">
+        <v>365</v>
+      </c>
+      <c r="G13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" t="s">
+        <v>326</v>
+      </c>
+      <c r="E18" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>296</v>
+      </c>
+      <c r="C19" t="s">
+        <v>346</v>
+      </c>
+      <c r="E19" t="s">
+        <v>346</v>
+      </c>
+      <c r="G19" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>327</v>
+      </c>
+      <c r="C20" t="s">
+        <v>347</v>
+      </c>
+      <c r="E20" t="s">
+        <v>366</v>
+      </c>
+      <c r="G20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>328</v>
+      </c>
+      <c r="C25" t="s">
+        <v>328</v>
+      </c>
+      <c r="E25" t="s">
+        <v>328</v>
+      </c>
+      <c r="G25" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>317</v>
+      </c>
+      <c r="C26" t="s">
+        <v>348</v>
+      </c>
+      <c r="E26" t="s">
+        <v>348</v>
+      </c>
+      <c r="G26" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" t="s">
+        <v>349</v>
+      </c>
+      <c r="E27" t="s">
+        <v>367</v>
+      </c>
+      <c r="G27" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="G30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>330</v>
+      </c>
+      <c r="C32" t="s">
+        <v>330</v>
+      </c>
+      <c r="E32" t="s">
+        <v>330</v>
+      </c>
+      <c r="G32" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>318</v>
+      </c>
+      <c r="C33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E33" t="s">
+        <v>350</v>
+      </c>
+      <c r="G33" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C34" t="s">
+        <v>351</v>
+      </c>
+      <c r="E34" t="s">
+        <v>368</v>
+      </c>
+      <c r="G34" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="E37" t="s">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" t="s">
+        <v>46</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>332</v>
+      </c>
+      <c r="C39" t="s">
+        <v>332</v>
+      </c>
+      <c r="E39" t="s">
+        <v>332</v>
+      </c>
+      <c r="G39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>319</v>
+      </c>
+      <c r="C40" t="s">
+        <v>352</v>
+      </c>
+      <c r="E40" t="s">
+        <v>352</v>
+      </c>
+      <c r="G40" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>333</v>
+      </c>
+      <c r="C41" t="s">
+        <v>353</v>
+      </c>
+      <c r="E41" t="s">
+        <v>369</v>
+      </c>
+      <c r="G41" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
+      </c>
+      <c r="E44" t="s">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" t="s">
+        <v>334</v>
+      </c>
+      <c r="E46" t="s">
+        <v>334</v>
+      </c>
+      <c r="G46" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>320</v>
+      </c>
+      <c r="C47" t="s">
+        <v>354</v>
+      </c>
+      <c r="E47" t="s">
+        <v>354</v>
+      </c>
+      <c r="G47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>335</v>
+      </c>
+      <c r="C48" t="s">
+        <v>355</v>
+      </c>
+      <c r="E48" t="s">
+        <v>370</v>
+      </c>
+      <c r="G48" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="s">
+        <v>29</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C53" t="s">
+        <v>336</v>
+      </c>
+      <c r="E53" t="s">
+        <v>336</v>
+      </c>
+      <c r="G53" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>321</v>
+      </c>
+      <c r="C54" t="s">
+        <v>356</v>
+      </c>
+      <c r="E54" t="s">
+        <v>356</v>
+      </c>
+      <c r="G54" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>337</v>
+      </c>
+      <c r="C55" t="s">
+        <v>357</v>
+      </c>
+      <c r="E55" t="s">
+        <v>371</v>
+      </c>
+      <c r="G55" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="G58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" t="s">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>58</v>
+      </c>
+      <c r="G59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>338</v>
+      </c>
+      <c r="C60" t="s">
+        <v>338</v>
+      </c>
+      <c r="E60" t="s">
+        <v>338</v>
+      </c>
+      <c r="G60" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>322</v>
+      </c>
+      <c r="C61" t="s">
+        <v>358</v>
+      </c>
+      <c r="E61" t="s">
+        <v>358</v>
+      </c>
+      <c r="G61" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>339</v>
+      </c>
+      <c r="C62" t="s">
+        <v>359</v>
+      </c>
+      <c r="E62" t="s">
+        <v>372</v>
+      </c>
+      <c r="G62" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="G65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C66" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" t="s">
+        <v>62</v>
+      </c>
+      <c r="G66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>340</v>
+      </c>
+      <c r="C67" t="s">
+        <v>340</v>
+      </c>
+      <c r="E67" t="s">
+        <v>340</v>
+      </c>
+      <c r="G67" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>323</v>
+      </c>
+      <c r="C68" t="s">
+        <v>360</v>
+      </c>
+      <c r="E68" t="s">
+        <v>360</v>
+      </c>
+      <c r="G68" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>341</v>
+      </c>
+      <c r="C69" t="s">
+        <v>361</v>
+      </c>
+      <c r="E69" t="s">
+        <v>373</v>
+      </c>
+      <c r="G69" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="s">
+        <v>29</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="G72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>66</v>
+      </c>
+      <c r="C73" t="s">
+        <v>66</v>
+      </c>
+      <c r="E73" t="s">
+        <v>66</v>
+      </c>
+      <c r="G73" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>342</v>
+      </c>
+      <c r="C74" t="s">
+        <v>342</v>
+      </c>
+      <c r="E74" t="s">
+        <v>342</v>
+      </c>
+      <c r="G74" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" t="s">
+        <v>362</v>
+      </c>
+      <c r="E75" t="s">
+        <v>362</v>
+      </c>
+      <c r="G75" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>343</v>
+      </c>
+      <c r="C76" t="s">
+        <v>363</v>
+      </c>
+      <c r="E76" t="s">
+        <v>374</v>
+      </c>
+      <c r="G76" t="s">
+        <v>385</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calro\Documents\GitHub\VRPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1523CC7-3E79-40FF-BEBC-1604111A86A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DF754F-3F67-415D-8B28-73C9CE94E28C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="4" xr2:uid="{90F68AF6-099D-4744-8169-367297E34D66}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="7" xr2:uid="{90F68AF6-099D-4744-8169-367297E34D66}"/>
   </bookViews>
   <sheets>
     <sheet name="Testing_Mikes" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="1.5" sheetId="3" r:id="rId3"/>
     <sheet name="2.0" sheetId="4" r:id="rId4"/>
     <sheet name="3.0" sheetId="5" r:id="rId5"/>
+    <sheet name="Final.." sheetId="6" r:id="rId6"/>
+    <sheet name="10 Node" sheetId="7" r:id="rId7"/>
+    <sheet name="7 Node" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="527">
   <si>
     <t>Aggregate</t>
   </si>
@@ -1195,13 +1198,601 @@
   </si>
   <si>
     <t xml:space="preserve">Time_taken_(s):      0.102        0.047      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       93           25          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      9.105        0           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       35           3           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       79           15          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       57           15          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       97           51          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       363          81          </t>
+  </si>
+  <si>
+    <r>
+      <t>"Tol"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>: tol</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Interval"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6897BB"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Antisymmetry"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"on"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Tight"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"on"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Aggregate"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"on"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>"Priority"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>"x"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.8000000000000007"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <t># "Cuts": "CGL",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.238        0.091       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       35           9           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.1          0.041       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.147        0.059       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.134        0.041       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.169        0.12        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.696        0.244       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.081        0.051       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.121        0.062       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.081        0.067       </t>
+  </si>
+  <si>
+    <t>Time_taken_(s):      0.12         0.063</t>
+  </si>
+  <si>
+    <t># "Node": "Rounding",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       93           27          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.163        0.051       </t>
+  </si>
+  <si>
+    <t># "Root": "Root TSP",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.223        0.078       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       35           13          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.1          0.038       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.147        0.031       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.145        0.022       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.173        0.105       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.686        0.143       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.099        0.04        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.112        0.049       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.084        0.03        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.128        0.092  </t>
+  </si>
+  <si>
+    <t>"Root": "Root TSP",</t>
+  </si>
+  <si>
+    <t>"Node": "Rounding",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.316        0.103       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.102        0.01        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.251        0.071       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.223        0.132       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.86         0.255       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.122        0.032       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.091        0.04        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.13         0.059   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.23         0.094       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.091        0.016       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.15         0.047       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.185        0.114       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.695        0.263       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.081        0.05        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.124        0.069       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.063        0.063       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.134        0.069   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      14.03        14.03       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       9913         2345        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      48.94        13.969      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      12.466       12.466      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       1007         27          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      6.802        0.285   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      53.215       25.318      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      6.677        0.735       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         1_23         1_23        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      12.561       12.561      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       251          65          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      1.889        2.689       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         1_42         1_42        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      12.529       12.529      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       1047         177         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      5.498        3.48        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         1_64         1_64        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      13.572       13.572      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       1583         285         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      10.519       8.16        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         1_100        1_100       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      11.738       11.738      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       2611         229         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      16.146       4.18        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      9.288        9.288       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       1383         559         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      6.208        2.21        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      11.88        11.88       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       191          35          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.759        0.176       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      8.573        8.573       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       87           41          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.358        0.204       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      9.025        9.025       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       31           25          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.251        0.132       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      12.127       12.127      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       17           5           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.107        0.041       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      10.967       10.967      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       97           29          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.39         0.152       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       1287         315         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      5.029        1.055       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      12.749       12.749      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       465          203         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      1.676        0.659       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         2_23         2_23        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.433        0.104       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         2_42         2_42        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       33           15          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.168        0.09        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         2_64         2_64        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      13.446       13.446      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       105          29          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.37         0.1         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         2_100        2_100       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      12.11        12.11       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       313          73          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      1.019        0.278       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      9.921        9.921       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       935          269         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      1.902        0.628       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      13.596       13.596      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       677          71          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      1.239        0.646       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         3_23         3_23        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      11.697       11.697      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       777          153         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      1.78         0.391       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         3_42         3_42        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      12.931       12.931      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       653          191         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      1.287        0.465       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         3_64         3_64        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      14.761       14.761      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       195          33          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.344        0.114       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart_&amp;_Seed:         3_100        3_100       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      13.327       13.327      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       679          103         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      1.127        0.254      </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1221,8 +1812,37 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FFCC7832"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6897BB"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF808080"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1232,6 +1852,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,11 +1874,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14610,7 +15242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C91E41C-90C1-440C-B827-4B8EE716006A}">
   <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -15397,4 +16029,1521 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B0CEECD-E946-4FB1-832D-A2F65FA698F3}">
+  <dimension ref="A1:G78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C13" t="s">
+        <v>324</v>
+      </c>
+      <c r="E13" t="s">
+        <v>324</v>
+      </c>
+      <c r="G13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>386</v>
+      </c>
+      <c r="C14" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" t="s">
+        <v>412</v>
+      </c>
+      <c r="G14" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>436</v>
+      </c>
+      <c r="C15" t="s">
+        <v>400</v>
+      </c>
+      <c r="E15" t="s">
+        <v>428</v>
+      </c>
+      <c r="G15" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>387</v>
+      </c>
+      <c r="C20" t="s">
+        <v>326</v>
+      </c>
+      <c r="E20" t="s">
+        <v>387</v>
+      </c>
+      <c r="G20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>388</v>
+      </c>
+      <c r="C21" t="s">
+        <v>401</v>
+      </c>
+      <c r="E21" t="s">
+        <v>388</v>
+      </c>
+      <c r="G21" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C22" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" t="s">
+        <v>429</v>
+      </c>
+      <c r="G22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>328</v>
+      </c>
+      <c r="C27" t="s">
+        <v>328</v>
+      </c>
+      <c r="E27" t="s">
+        <v>328</v>
+      </c>
+      <c r="G27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>389</v>
+      </c>
+      <c r="C28" t="s">
+        <v>389</v>
+      </c>
+      <c r="E28" t="s">
+        <v>389</v>
+      </c>
+      <c r="G28" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>438</v>
+      </c>
+      <c r="C29" t="s">
+        <v>403</v>
+      </c>
+      <c r="E29" t="s">
+        <v>430</v>
+      </c>
+      <c r="G29" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="G32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>330</v>
+      </c>
+      <c r="C34" t="s">
+        <v>330</v>
+      </c>
+      <c r="E34" t="s">
+        <v>330</v>
+      </c>
+      <c r="G34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>390</v>
+      </c>
+      <c r="C35" t="s">
+        <v>390</v>
+      </c>
+      <c r="E35" t="s">
+        <v>390</v>
+      </c>
+      <c r="G35" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>418</v>
+      </c>
+      <c r="C36" t="s">
+        <v>404</v>
+      </c>
+      <c r="E36" t="s">
+        <v>413</v>
+      </c>
+      <c r="G36" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>332</v>
+      </c>
+      <c r="C41" t="s">
+        <v>332</v>
+      </c>
+      <c r="E41" t="s">
+        <v>332</v>
+      </c>
+      <c r="G41" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>391</v>
+      </c>
+      <c r="C42" t="s">
+        <v>391</v>
+      </c>
+      <c r="E42" t="s">
+        <v>391</v>
+      </c>
+      <c r="G42" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>439</v>
+      </c>
+      <c r="C43" t="s">
+        <v>405</v>
+      </c>
+      <c r="E43" t="s">
+        <v>431</v>
+      </c>
+      <c r="G43" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E46" t="s">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>334</v>
+      </c>
+      <c r="C48" t="s">
+        <v>334</v>
+      </c>
+      <c r="E48" t="s">
+        <v>334</v>
+      </c>
+      <c r="G48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>392</v>
+      </c>
+      <c r="C49" t="s">
+        <v>392</v>
+      </c>
+      <c r="E49" t="s">
+        <v>392</v>
+      </c>
+      <c r="G49" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>440</v>
+      </c>
+      <c r="C50" t="s">
+        <v>406</v>
+      </c>
+      <c r="E50" t="s">
+        <v>432</v>
+      </c>
+      <c r="G50" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+      <c r="G54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>336</v>
+      </c>
+      <c r="C55" t="s">
+        <v>336</v>
+      </c>
+      <c r="E55" t="s">
+        <v>336</v>
+      </c>
+      <c r="G55" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56" t="s">
+        <v>241</v>
+      </c>
+      <c r="E56" t="s">
+        <v>241</v>
+      </c>
+      <c r="G56" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>441</v>
+      </c>
+      <c r="C57" t="s">
+        <v>407</v>
+      </c>
+      <c r="E57" t="s">
+        <v>433</v>
+      </c>
+      <c r="G57" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>29</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" t="s">
+        <v>58</v>
+      </c>
+      <c r="G61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>338</v>
+      </c>
+      <c r="C62" t="s">
+        <v>338</v>
+      </c>
+      <c r="E62" t="s">
+        <v>338</v>
+      </c>
+      <c r="G62" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>249</v>
+      </c>
+      <c r="C63" t="s">
+        <v>249</v>
+      </c>
+      <c r="E63" t="s">
+        <v>249</v>
+      </c>
+      <c r="G63" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>442</v>
+      </c>
+      <c r="C64" t="s">
+        <v>408</v>
+      </c>
+      <c r="E64" t="s">
+        <v>256</v>
+      </c>
+      <c r="G64" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="s">
+        <v>29</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="G67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" t="s">
+        <v>62</v>
+      </c>
+      <c r="E68" t="s">
+        <v>62</v>
+      </c>
+      <c r="G68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>340</v>
+      </c>
+      <c r="C69" t="s">
+        <v>340</v>
+      </c>
+      <c r="E69" t="s">
+        <v>340</v>
+      </c>
+      <c r="G69" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>262</v>
+      </c>
+      <c r="C70" t="s">
+        <v>262</v>
+      </c>
+      <c r="E70" t="s">
+        <v>262</v>
+      </c>
+      <c r="G70" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>443</v>
+      </c>
+      <c r="C71" t="s">
+        <v>409</v>
+      </c>
+      <c r="E71" t="s">
+        <v>434</v>
+      </c>
+      <c r="G71" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" t="s">
+        <v>29</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="G74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+      <c r="C75" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" t="s">
+        <v>66</v>
+      </c>
+      <c r="G75" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>342</v>
+      </c>
+      <c r="C76" t="s">
+        <v>342</v>
+      </c>
+      <c r="E76" t="s">
+        <v>342</v>
+      </c>
+      <c r="G76" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>247</v>
+      </c>
+      <c r="C77" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77" t="s">
+        <v>247</v>
+      </c>
+      <c r="G77" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>444</v>
+      </c>
+      <c r="C78" t="s">
+        <v>410</v>
+      </c>
+      <c r="E78" t="s">
+        <v>435</v>
+      </c>
+      <c r="G78" t="s">
+        <v>425</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EE694FD-52B9-4012-AF69-A2B611F71F2C}">
+  <dimension ref="A6:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>445</v>
+      </c>
+      <c r="C8" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>446</v>
+      </c>
+      <c r="C9" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C10" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>448</v>
+      </c>
+      <c r="C15" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>449</v>
+      </c>
+      <c r="C16" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>450</v>
+      </c>
+      <c r="C17" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C24" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307C55B5-6B0F-493E-ACB1-15567AE8DB50}">
+  <dimension ref="A4:A127"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Analysis.xlsx
+++ b/Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\calro\Documents\GitHub\VRPs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3DF754F-3F67-415D-8B28-73C9CE94E28C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0E6E39-5351-4AE8-9064-1A304DCB396A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="7" xr2:uid="{90F68AF6-099D-4744-8169-367297E34D66}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3451" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3542" uniqueCount="577">
   <si>
     <t>Aggregate</t>
   </si>
@@ -1786,6 +1786,156 @@
   </si>
   <si>
     <t xml:space="preserve">Time_taken_(s):      1.127        0.254      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UPI:                 bbbb001      crou060     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       225          25          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.313        0.111       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       21           9           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.071        0.042       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      8.831        8.831       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       171          25          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.244        0.093       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      10.876       10.876      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       57           5           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.113        0.032       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      10.037       10.037      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       89           21          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.143        0.064       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      8.72         8.72        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       151          19          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.258        0.081       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       279          15          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.43         0.053       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       383          51          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.541        0.121       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      9.729        9.729       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       499          43          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.678        0.319       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      13.315       13.315      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       1629         101         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      2.331        0.226       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      12.812       12.812      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       2245         191         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      3.409        0.428       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      9.388        9.388       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       827          75          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      1.299        0.183       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       31           21          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.041        0.062       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       47           27          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.061        0.082       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      10.577       10.577      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       17           17          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.039        0.062       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      13.217       13.217      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       27           27          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.031        0.082       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      12.534       12.534      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       19           11          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.02         0.051       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total_distance:      10.123       10.123      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nodes_in_tree:       29           23          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time_taken_(s):      0.041        0.064    </t>
+  </si>
+  <si>
+    <t>Baseline</t>
   </si>
 </sst>
 </file>
@@ -17082,465 +17232,741 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{307C55B5-6B0F-493E-ACB1-15567AE8DB50}">
-  <dimension ref="A4:A127"/>
+  <dimension ref="A1:C127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="33.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C28" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C29" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C53" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C56" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C60" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C63" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C64" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C67" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C68" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C69" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C71" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C90" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C91" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C92" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C95" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C96" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C97" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C98" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C99" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C102" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C103" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C104" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C105" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C106" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C109" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C111" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C112" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C113" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C116" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C117" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C118" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C119" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C123" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C125" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C126" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>526</v>
+      </c>
+      <c r="C127" t="s">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
